--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="30" t="n">
-        <v>116</v>
+        <v>214.542</v>
       </c>
       <c r="E33" s="31" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="32" t="n">
-        <v>126.813</v>
+        <v>237.684</v>
       </c>
       <c r="E34" s="31" t="n"/>
       <c r="F34" s="31" t="n"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="32" t="n">
-        <v>149.638</v>
+        <v>274.92</v>
       </c>
       <c r="E35" s="31" t="n"/>
       <c r="F35" s="31" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="C39" s="29" t="n"/>
       <c r="D39" s="30" t="n">
-        <v>158.191</v>
+        <v>293.364</v>
       </c>
       <c r="E39" s="31" t="n"/>
       <c r="F39" s="31" t="n"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="32" t="n">
-        <v>243.215</v>
+        <v>441.09</v>
       </c>
       <c r="E40" s="31" t="n"/>
       <c r="F40" s="31" t="n"/>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
+++ b/server/LISTAS/ma/BISAGRAS 1842 DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C33" s="29" t="n"/>
       <c r="D33" s="30" t="n">
-        <v>116</v>
+        <v>277.464</v>
       </c>
       <c r="E33" s="31" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C34" s="29" t="n"/>
       <c r="D34" s="32" t="n">
-        <v>126.813</v>
+        <v>307.393</v>
       </c>
       <c r="E34" s="31" t="n"/>
       <c r="F34" s="31" t="n"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="32" t="n">
-        <v>149.638</v>
+        <v>355.55</v>
       </c>
       <c r="E35" s="31" t="n"/>
       <c r="F35" s="31" t="n"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="C39" s="29" t="n"/>
       <c r="D39" s="30" t="n">
-        <v>158.191</v>
+        <v>379.403</v>
       </c>
       <c r="E39" s="31" t="n"/>
       <c r="F39" s="31" t="n"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="32" t="n">
-        <v>243.215</v>
+        <v>570.456</v>
       </c>
       <c r="E40" s="31" t="n"/>
       <c r="F40" s="31" t="n"/>
@@ -1021,19 +1021,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
